--- a/data/trans_dic/IP13_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R2_2023-Estudios-trans_dic.xlsx
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 21,26</t>
+          <t>5,05; 19,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 12,51</t>
+          <t>1,46; 12,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 14,26</t>
+          <t>5,0; 15,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,13</t>
+          <t>2,41; 5,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,58</t>
+          <t>2,64; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,03</t>
+          <t>2,89; 5,02</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,0</t>
+          <t>3,23; 10,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,26</t>
+          <t>2,05; 8,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,78</t>
+          <t>3,34; 7,95</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,44</t>
+          <t>3,73; 6,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,76</t>
+          <t>2,97; 5,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,55</t>
+          <t>3,67; 5,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP13_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP13_R2_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 12,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,91; 20,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>4,55; 13,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 19,23</t>
+          <t>2,5; 5,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 12,97</t>
+          <t>2,36; 4,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 15,09</t>
+          <t>2,69; 4,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,35</t>
+          <t>1,92; 7,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,52</t>
+          <t>3,36; 9,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,02</t>
+          <t>3,38; 7,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -729,81 +729,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,52</t>
+          <t>2,87; 5,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 8,35</t>
+          <t>3,61; 6,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,95</t>
+          <t>3,57; 5,55</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 6,52</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 5,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 5,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
